--- a/src/main/resources/templates/newTest.xlsx
+++ b/src/main/resources/templates/newTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/java作业/Test/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94FD7D8-DEAE-334C-ADE4-805260AB09C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50990D4B-27C6-E94F-9A5C-B95236E56BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15940" xr2:uid="{D2D051A4-3C9F-D04E-9E1B-99BE03E06370}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15880" xr2:uid="{D2D051A4-3C9F-D04E-9E1B-99BE03E06370}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -77,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -85,17 +89,180 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,34 +579,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8AF335-76D0-3D49-98E0-17E3A43C2EAA}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="D3" t="s" s="0">
+    <row r="2" spans="1:4">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
